--- a/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_OASH.xlsx
+++ b/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_OASH.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -358,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,8 +494,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -843,26 +858,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,6 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1227,11 +1246,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -1239,8 +1258,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1260,7 +1279,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1278,7 +1297,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1286,36 +1305,36 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>20081350</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1414,7 @@
         <v>9915582</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1434,7 @@
         <v>8811300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1494,7 @@
         <v>6710000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1495,7 +1514,7 @@
         <v>6217969</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1575,7 +1594,7 @@
         <v>5479626</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1614,7 @@
         <v>5414626</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1635,7 +1654,7 @@
         <v>5279647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -1675,7 +1694,7 @@
         <v>4937235</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1695,7 +1714,7 @@
         <v>4860000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1735,7 +1754,7 @@
         <v>4385000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -1755,7 +1774,7 @@
         <v>4349900</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>4205000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1814,7 @@
         <v>4175000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1914,7 @@
         <v>3794000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -1935,7 +1954,7 @@
         <v>3698000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -1955,7 +1974,7 @@
         <v>3603461</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>77</v>
       </c>
@@ -2015,7 +2034,7 @@
         <v>3354000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -2035,7 +2054,7 @@
         <v>3081600</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>85</v>
       </c>
@@ -2055,7 +2074,7 @@
         <v>3031435</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
@@ -2095,7 +2114,7 @@
         <v>2894432</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -2135,7 +2154,7 @@
         <v>2759000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -2155,7 +2174,7 @@
         <v>2729838</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -2175,7 +2194,7 @@
         <v>2719145</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>97</v>
       </c>
@@ -2235,7 +2254,7 @@
         <v>2485766</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -2255,7 +2274,7 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
@@ -2275,7 +2294,7 @@
         <v>2438026</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>107</v>
       </c>
@@ -2295,7 +2314,7 @@
         <v>2272209</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
